--- a/res.xlsx
+++ b/res.xlsx
@@ -431,378 +431,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 42Временная работа 32От 4 часов в день 19По вечерам 17По выходным 15Разовое задание 2ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 20 000 руб. 169от 60 000 руб. 109от 100 000 руб. 63от 140 000 руб. 37от 180 000 руб. 18от 220 000 руб. 13Своя зарплатаУказан доход 169Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Нововаршавка 1Оконешниково 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 161Специалист технической поддержки 26Аналитик 21Инженер-конструктор, инженер-проектировщик 13Другое 15СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 142Промышленное оборудование, техника, станки и комплектующие 31Финансовый сектор 27Металлургия, металлообработка 22Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 21Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 228Высшее 111Среднее профессиональное 15ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 157От 3 до 6 лет 91Нет опыта 82Более 6 лет 11Опыт работыОт 1 года до 3 летОт 3 до 6 летНет опытаБолее 6 летТип занятостиПолная занятость 287Частичная занятость 42Стажировка 10Проектная работа 2ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 235Удаленная работа 76Гибкий график 19Сменный график 7Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методИсключениеБез вакансий агентств 326Только с адресом 182Менее 10 откликов 124Только доступные для людей с инвалидностью 47Только аккредитованные ИТ-компании 13Только доступные для соискателей от 14 летИсключениеБез вакансий агентствТолько с адресомМенее 10 откликовТолько доступные для людей с инвалидностьюТолько аккредитованные ИТ-компанииТолько доступные для соискателей от 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекСтажер-разработчик АВАРдо 23 000 руб.СИГМАОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривает 1 человекАсессор-разработчикдо 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскОткликнутьсяПрограммист33 753 – 37 197 руб.Казенное учреждение Омской области Социальная защитаОмскОткликнутьсяПрограммист-разработчикот 50 000 руб.ООО ОКБ НависетОмскОткликнитесь среди первыхОткликнутьсяСтажер-программист 1Сот 20 000 руб.Первый БитОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер программист 1С Битрикс (PHP)20 000 – 30 000 руб.OSMINOG ProjectОмскОткликнитесь среди первыхОткликнутьсяBackend Developer (PHP/NodeJs)от 70 000 руб.Koyu.TechОмскОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскОткликнутьсяСейчас просматривает 1 человекFront-End разработчик (Vue.js, Typescript, SPA)от 5 000 USDTextMagicОмскОткликнутьсяИнженер-программистот 50 000 руб.ООО Сфера экономных технологийОмскОткликнутьсяСейчас просматривают 2 человекаBack-end разработчик (PHP 8, Symfony 6, PostgreSQL)от 5 000 USDTextMagicОмскОткликнутьсяСейчас просматривает 1 человекВедущий программист19 500 – 43 000 руб.БУЗОО ГКПЦОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 25 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекFull stack разработчик (Symfony, Wordpress, SQL)от 4 000 USDTextMagicОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1сот 70 000 руб.itaurumОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.АвтотаунОмскОткликнутьсяПрограммист 1Cот 40 000 руб.La-boraОмскОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяСейчас просматривает 1 человекPHP-разработчикAcidHeadОмскРаботодатель сейчас онлайнОткликнутьсяВедущий инженер-программистот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 35 000 руб.КУ ЦЗН города ОмскаОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяВедущий инженер-программист С++ (QtCreator / KeiluVision)55 000 – 70 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 80 000 руб.ОАО НИИТКДОмскОткликнитесь среди первыхОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист C/С++100 000 – 250 000 руб.ООО ПромобитОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскМожно из домаОткликнутьсяИнженер-программист по разработке и тестированию программных продуктовАО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист 1Сдо 70 000 руб.СлатаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 150 000 руб.ООО Роскошный ломбардОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С в сеть магазинов "КУЗЯ"от 70 000 руб.ООО Холдинг ВелКомОмскОткликнутьсяПрограммист 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскМожно из домаОткликнутьсяВедущий инженер программист 1Сот 100 000 руб.АО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскОткликнутьсяПрограммист-консультант 1CОАО СладонежОмскОткликнутьсяСейчас просматривает 1 человек1C Программист-стажерПроцессорОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 60 000 руб.ЭЛабоТэкОмскОткликнутьсяВедущий инженер-программист – Веб-дизайнерот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер-программист С++ (QtCreator / KeiluVision)АО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист-разработчик 1СГК ЧерноголовкаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяВедущий инженер-программист90 000 – 150 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяПрограммист 1С ЗУПот 120 000 руб.ООО «Аксиома-Софт»ОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяФильтры12345...7дальшеДругие пользователи ищуттестировщикматематикруководитель проектастажерweb developerконсультантразработчик программного обеспеченияпереводчикверстальщикинженер-программистаналитикактерначальник отделасистемный программистweb-программистБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1076106 вакансии, 62698946 резюме, 1871032 компании и за неделю 3068017 приглашений</t>
+          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1098655 вакансии, 62946161 резюме, 1889082 компании и за неделю 3358192 приглашения</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 42Временная работа 32От 4 часов в день 19По вечерам 17По выходным 15Разовое задание 2ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 20 000 руб. 169от 60 000 руб. 109от 100 000 руб. 63от 140 000 руб. 37от 180 000 руб. 18от 220 000 руб. 13Своя зарплатаУказан доход 169Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Нововаршавка 1Оконешниково 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 161Специалист технической поддержки 26Аналитик 21Инженер-конструктор, инженер-проектировщик 13Другое 15СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 142Промышленное оборудование, техника, станки и комплектующие 31Финансовый сектор 27Металлургия, металлообработка 22Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 21Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 228Высшее 111Среднее профессиональное 15ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 157От 3 до 6 лет 91Нет опыта 82Более 6 лет 11Опыт работыОт 1 года до 3 летОт 3 до 6 летНет опытаБолее 6 летТип занятостиПолная занятость 287Частичная занятость 42Стажировка 10Проектная работа 2ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 235Удаленная работа 76Гибкий график 19Сменный график 7Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методИсключениеБез вакансий агентств 326Только с адресом 182Менее 10 откликов 124Только доступные для людей с инвалидностью 47Только аккредитованные ИТ-компании 13Только доступные для соискателей от 14 летИсключениеБез вакансий агентствТолько с адресомМенее 10 откликовТолько доступные для людей с инвалидностьюТолько аккредитованные ИТ-компанииТолько доступные для соискателей от 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекСтажер-разработчик АВАРдо 23 000 руб.СИГМАОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривает 1 человекАсессор-разработчикдо 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскОткликнутьсяПрограммист33 753 – 37 197 руб.Казенное учреждение Омской области Социальная защитаОмскОткликнутьсяПрограммист-разработчикот 50 000 руб.ООО ОКБ НависетОмскОткликнитесь среди первыхОткликнутьсяСтажер-программист 1Сот 20 000 руб.Первый БитОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер программист 1С Битрикс (PHP)20 000 – 30 000 руб.OSMINOG ProjectОмскОткликнитесь среди первыхОткликнутьсяBackend Developer (PHP/NodeJs)от 70 000 руб.Koyu.TechОмскОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскОткликнутьсяСейчас просматривает 1 человекFront-End разработчик (Vue.js, Typescript, SPA)от 5 000 USDTextMagicОмскОткликнутьсяИнженер-программистот 50 000 руб.ООО Сфера экономных технологийОмскОткликнутьсяСейчас просматривают 2 человекаBack-end разработчик (PHP 8, Symfony 6, PostgreSQL)от 5 000 USDTextMagicОмскОткликнутьсяСейчас просматривает 1 человекВедущий программист19 500 – 43 000 руб.БУЗОО ГКПЦОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 25 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекFull stack разработчик (Symfony, Wordpress, SQL)от 4 000 USDTextMagicОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1сот 70 000 руб.itaurumОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.АвтотаунОмскОткликнутьсяПрограммист 1Cот 40 000 руб.La-boraОмскОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяСейчас просматривает 1 человекPHP-разработчикAcidHeadОмскРаботодатель сейчас онлайнОткликнутьсяВедущий инженер-программистот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 35 000 руб.КУ ЦЗН города ОмскаОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяВедущий инженер-программист С++ (QtCreator / KeiluVision)55 000 – 70 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 80 000 руб.ОАО НИИТКДОмскОткликнитесь среди первыхОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист C/С++100 000 – 250 000 руб.ООО ПромобитОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскМожно из домаОткликнутьсяИнженер-программист по разработке и тестированию программных продуктовАО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист 1Сдо 70 000 руб.СлатаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 150 000 руб.ООО Роскошный ломбардОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С в сеть магазинов "КУЗЯ"от 70 000 руб.ООО Холдинг ВелКомОмскОткликнутьсяПрограммист 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскМожно из домаОткликнутьсяВедущий инженер программист 1Сот 100 000 руб.АО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскОткликнутьсяПрограммист-консультант 1CОАО СладонежОмскОткликнутьсяСейчас просматривает 1 человек1C Программист-стажерПроцессорОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 60 000 руб.ЭЛабоТэкОмскОткликнутьсяВедущий инженер-программист – Веб-дизайнерот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер-программист С++ (QtCreator / KeiluVision)АО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист-разработчик 1СГК ЧерноголовкаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяВедущий инженер-программист90 000 – 150 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяПрограммист 1С ЗУПот 120 000 руб.ООО «Аксиома-Софт»ОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяФильтры12345...7дальшеДругие пользователи ищуттестировщикматематикруководитель проектастажерweb developerконсультантразработчик программного обеспеченияпереводчикверстальщикинженер-программистаналитикактерначальник отделасистемный программистweb-программистБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1076106 вакансии, 62698946 резюме, 1871032 компании и за неделю 3068017 приглашений</t>
+          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1098655 вакансии, 62946161 резюме, 1889082 компании и за неделю 3358192 приглашения</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>По соответствиюЗа всё времяПодработкаНеполный день 42Временная работа 32От 4 часов в день 19По вечерам 17По выходным 15Разовое задание 2ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 20 000 руб. 169от 60 000 руб. 109от 100 000 руб. 63от 140 000 руб. 37от 180 000 руб. 18от 220 000 руб. 13Своя зарплатаУказан доход 169Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Нововаршавка 1Оконешниково 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 161Специалист технической поддержки 26Аналитик 21Инженер-конструктор, инженер-проектировщик 13Другое 15СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 142Промышленное оборудование, техника, станки и комплектующие 31Финансовый сектор 27Металлургия, металлообработка 22Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 21Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 228Высшее 111Среднее профессиональное 15ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 157От 3 до 6 лет 91Нет опыта 82Более 6 лет 11Опыт работыОт 1 года до 3 летОт 3 до 6 летНет опытаБолее 6 летТип занятостиПолная занятость 287Частичная занятость 42Стажировка 10Проектная работа 2ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 235Удаленная работа 76Гибкий график 19Сменный график 7Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методИсключениеБез вакансий агентств 326Только с адресом 182Менее 10 откликов 124Только доступные для людей с инвалидностью 47Только аккредитованные ИТ-компании 13Только доступные для соискателей от 14 летИсключениеБез вакансий агентствТолько с адресомМенее 10 откликовТолько доступные для людей с инвалидностьюТолько аккредитованные ИТ-компанииТолько доступные для соискателей от 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекСтажер-разработчик АВАРдо 23 000 руб.СИГМАОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривает 1 человекАсессор-разработчикдо 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскОткликнутьсяПрограммист33 753 – 37 197 руб.Казенное учреждение Омской области Социальная защитаОмскОткликнутьсяПрограммист-разработчикот 50 000 руб.ООО ОКБ НависетОмскОткликнитесь среди первыхОткликнутьсяСтажер-программист 1Сот 20 000 руб.Первый БитОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер программист 1С Битрикс (PHP)20 000 – 30 000 руб.OSMINOG ProjectОмскОткликнитесь среди первыхОткликнутьсяBackend Developer (PHP/NodeJs)от 70 000 руб.Koyu.TechОмскОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскОткликнутьсяСейчас просматривает 1 человекFront-End разработчик (Vue.js, Typescript, SPA)от 5 000 USDTextMagicОмскОткликнутьсяИнженер-программистот 50 000 руб.ООО Сфера экономных технологийОмскОткликнутьсяСейчас просматривают 2 человекаBack-end разработчик (PHP 8, Symfony 6, PostgreSQL)от 5 000 USDTextMagicОмскОткликнутьсяСейчас просматривает 1 человекВедущий программист19 500 – 43 000 руб.БУЗОО ГКПЦОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 25 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекFull stack разработчик (Symfony, Wordpress, SQL)от 4 000 USDTextMagicОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1сот 70 000 руб.itaurumОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.АвтотаунОмскОткликнутьсяПрограммист 1Cот 40 000 руб.La-boraОмскОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяСейчас просматривает 1 человекPHP-разработчикAcidHeadОмскРаботодатель сейчас онлайнОткликнутьсяВедущий инженер-программистот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 35 000 руб.КУ ЦЗН города ОмскаОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяВедущий инженер-программист С++ (QtCreator / KeiluVision)55 000 – 70 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 80 000 руб.ОАО НИИТКДОмскОткликнитесь среди первыхОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист C/С++100 000 – 250 000 руб.ООО ПромобитОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскМожно из домаОткликнутьсяИнженер-программист по разработке и тестированию программных продуктовАО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист 1Сдо 70 000 руб.СлатаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 150 000 руб.ООО Роскошный ломбардОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С в сеть магазинов "КУЗЯ"от 70 000 руб.ООО Холдинг ВелКомОмскОткликнутьсяПрограммист 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскМожно из домаОткликнутьсяВедущий инженер программист 1Сот 100 000 руб.АО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскОткликнутьсяПрограммист-консультант 1CОАО СладонежОмскОткликнутьсяСейчас просматривает 1 человек1C Программист-стажерПроцессорОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 60 000 руб.ЭЛабоТэкОмскОткликнутьсяВедущий инженер-программист – Веб-дизайнерот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер-программист С++ (QtCreator / KeiluVision)АО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист-разработчик 1СГК ЧерноголовкаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяВедущий инженер-программист90 000 – 150 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяПрограммист 1С ЗУПот 120 000 руб.ООО «Аксиома-Софт»ОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяФильтры12345...7дальшеДругие пользователи ищуттестировщикматематикруководитель проектастажерweb developerконсультантразработчик программного обеспеченияпереводчикверстальщикинженер-программистаналитикактерначальник отделасистемный программистweb-программистБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностью</t>
+          <t>По соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностью</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Сейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекСтажер-разработчик АВАРдо 23 000 руб.СИГМАОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривает 1 человекАсессор-разработчикдо 65 000 руб.ЯндексОмскМожно из домаРаботодатель сейчас онлайнОткликнутьсяПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскОткликнутьсяПрограммист33 753 – 37 197 руб.Казенное учреждение Омской области Социальная защитаОмскОткликнутьсяПрограммист-разработчикот 50 000 руб.ООО ОКБ НависетОмскОткликнитесь среди первыхОткликнутьсяСтажер-программист 1Сот 20 000 руб.Первый БитОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер программист 1С Битрикс (PHP)20 000 – 30 000 руб.OSMINOG ProjectОмскОткликнитесь среди первыхОткликнутьсяBackend Developer (PHP/NodeJs)от 70 000 руб.Koyu.TechОмскОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскОткликнутьсяСейчас просматривает 1 человекFront-End разработчик (Vue.js, Typescript, SPA)от 5 000 USDTextMagicОмскОткликнутьсяИнженер-программистот 50 000 руб.ООО Сфера экономных технологийОмскОткликнутьсяСейчас просматривают 2 человекаBack-end разработчик (PHP 8, Symfony 6, PostgreSQL)от 5 000 USDTextMagicОмскОткликнутьсяСейчас просматривает 1 человекВедущий программист19 500 – 43 000 руб.БУЗОО ГКПЦОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 25 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекFull stack разработчик (Symfony, Wordpress, SQL)от 4 000 USDTextMagicОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1сот 70 000 руб.itaurumОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.АвтотаунОмскОткликнутьсяПрограммист 1Cот 40 000 руб.La-boraОмскОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяСейчас просматривает 1 человекPHP-разработчикAcidHeadОмскРаботодатель сейчас онлайнОткликнутьсяВедущий инженер-программистот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 35 000 руб.КУ ЦЗН города ОмскаОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяВедущий инженер-программист С++ (QtCreator / KeiluVision)55 000 – 70 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 80 000 руб.ОАО НИИТКДОмскОткликнитесь среди первыхОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист C/С++100 000 – 250 000 руб.ООО ПромобитОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскМожно из домаОткликнутьсяИнженер-программист по разработке и тестированию программных продуктовАО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист 1Сдо 70 000 руб.СлатаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 150 000 руб.ООО Роскошный ломбардОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1С в сеть магазинов "КУЗЯ"от 70 000 руб.ООО Холдинг ВелКомОмскОткликнутьсяПрограммист 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскМожно из домаОткликнутьсяВедущий инженер программист 1Сот 100 000 руб.АО СГМКОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскОткликнутьсяПрограммист-консультант 1CОАО СладонежОмскОткликнутьсяСейчас просматривает 1 человек1C Программист-стажерПроцессорОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 60 000 руб.ЭЛабоТэкОмскОткликнутьсяВедущий инженер-программист – Веб-дизайнерот 50 000 руб.АО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер-программист С++ (QtCreator / KeiluVision)АО Омский НИИ ПриборостроенияОмскОткликнутьсяПрограммист-разработчик 1СГК ЧерноголовкаОмскОткликнитесь среди первыхМожно из домаОткликнутьсяВедущий инженер-программист90 000 – 150 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяПрограммист 1С ЗУПот 120 000 руб.ООО «Аксиома-Софт»ОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнуться</t>
+          <t>Сейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнуться</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Junior разработчик (поисковая выдача)до 65 000 руб.</t>
+          <t>Веб-программистдо 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Стажер-разработчик АВАРдо 23 000 руб.</t>
+          <t>Программист40 000 – 120 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Асессор-разработчикдо 65 000 руб.</t>
+          <t>Программист SQL SSASдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Программист-стажер 1Сот 25 000 руб.</t>
+          <t>PHP-разработчик (Junior)30 000 – 60 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Программист33 753 – 37 197 руб.</t>
+          <t>Стажер-программист 1Сот 35 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Программист-разработчикот 50 000 руб.</t>
+          <t>Инженер-программистот 30 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Стажер-программист 1Сот 20 000 руб.</t>
+          <t>Стажер-программист 1С (IT компания)от 20 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Инженер-программист</t>
+          <t>Junior разработчик (поисковая выдача)до 65 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Стажер программист 1С Битрикс (PHP)20 000 – 30 000 руб.</t>
+          <t>Программист 1Сот 170 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Backend Developer (PHP/NodeJs)от 70 000 руб.</t>
+          <t>Программист Python105 000 – 215 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Программист С# (Full stack)</t>
+          <t>Программист 1С120 000 – 160 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Front-End разработчик (Vue.js, Typescript, SPA)от 5 000 USD</t>
+          <t>Junior разработчик в службу разметки данных</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Инженер-программистот 50 000 руб.</t>
+          <t>Стажер-разработчик АВАРдо 29 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Back-end разработчик (PHP 8, Symfony 6, PostgreSQL)от 5 000 USD</t>
+          <t>Старший программист 1С (IT-компания)95 000 – 160 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ведущий программист19 500 – 43 000 руб.</t>
+          <t>ГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Инженер-программистот 25 000 руб.</t>
+          <t>Ведущий программист 1Сот 200 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Full stack разработчик (Symfony, Wordpress, SQL)от 4 000 USD</t>
+          <t>Асессор-разработчикдо 65 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Программист 1сот 70 000 руб.</t>
+          <t>Стажер-программист 1С20 000 – 30 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Программист 1С100 000 – 120 000 руб.</t>
+          <t>Программист-стажер 1Сот 25 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Программист / разработчик 1С</t>
+          <t>Программист С# (Full stack)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Программист 1Сот 100 000 руб.</t>
+          <t>Программист 1С50 000 – 70 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Программист 1Cот 40 000 руб.</t>
+          <t>Разработчик 1С (Middle)от 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Инженер-программист</t>
+          <t>Инженер-программистот 50 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PHP-разработчик</t>
+          <t>Программист (ТД СибХолод)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программистот 50 000 руб.</t>
+          <t>Программист АСУ ТП30 000 – 50 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Инженер-программистот 35 000 руб.</t>
+          <t>Программист 1С160 000 – 210 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Программист 1C</t>
+          <t>Программист 1Сот 170 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист С++ (QtCreator / KeiluVision)55 000 – 70 000 руб.</t>
+          <t>Программист С++ (Linux backend)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Программист 1Сот 80 000 руб.</t>
+          <t>PHP-программист</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Программист (ТД СибХолод)</t>
+          <t>Программист 1Сот 138 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Инженер – программист 1С</t>
+          <t>Инженер-программист</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Программист C/С++100 000 – 250 000 руб.</t>
+          <t>Программист 1Сот 130 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Программист 1Сот 138 000 руб.</t>
+          <t>Программист 1С100 000 – 120 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Инженер-программист по разработке и тестированию программных продуктов</t>
+          <t>Программист / разработчик 1С</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Программист 1Сдо 70 000 руб.</t>
+          <t>Программист 1Сот 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Программист 1Сдо 150 000 руб.</t>
+          <t>Программист 1С90 000 – 110 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Программист 1Сот 150 000 руб.</t>
+          <t>JavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Программист 1С в сеть магазинов "КУЗЯ"от 70 000 руб.</t>
+          <t>Программист 1С</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Программист 1С</t>
+          <t>Инженер-программист</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Программист 1Сот 100 000 руб.</t>
+          <t>Инженер – программист 1С</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ведущий инженер программист 1Сот 100 000 руб.</t>
+          <t>Vue.js Developerдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Стажер-программист 1С20 000 – 30 000 руб.</t>
+          <t>Инженер-программистот 45 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Программист-консультант 1C</t>
+          <t>Программист 1Сдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1C Программист-стажер</t>
+          <t>Программист 1С</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Инженер-программистот 60 000 руб.</t>
+          <t>Программист 1сот 116 600 руб.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист – Веб-дизайнерот 50 000 руб.</t>
+          <t>Программист 1C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Инженер-программист С++ (QtCreator / KeiluVision)</t>
+          <t>Программист 1 категорииот 54 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Программист-разработчик 1С</t>
+          <t>Web-программист JSот 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист90 000 – 150 000 руб.</t>
+          <t>Программистот 35 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Программист 1С ЗУПот 120 000 руб.</t>
+          <t>Инженер - программист 1С60 000 – 80 000 руб.</t>
         </is>
       </c>
     </row>

--- a/res.xlsx
+++ b/res.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,376 +431,348 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1098655 вакансии, 62946161 резюме, 1889082 компании и за неделю 3358192 приглашения</t>
+          <t>Веб-программистдо 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Для работы с нашим сайтом необходимо, чтобы Вы включили JavaScript в вашем браузере.ОмскСоискателямРаботодателямГотовое резюмеКарьерная консультацияВсе сервисы ПомощьИщу работу ПоискСоздать резюмеВойтиВойтиНайтиВакансииРезюмеКомпаниив ОмскеРабота программистом в Омске, 341 вакансияПо соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностьюПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to EnglishHeadHunterО компанииНаши вакансииРеклама на сайтеТребования к ПОЗащита персональных данныхБезопасный HeadHunterЭтика и комплаенсHeadHunter APIПартнерамИнвесторамУсловия оказания услугУсловия использования сайтовНовости и статьиНовости рынка HRЖизнь в компанииИТ-проектыРейтинг работодателей РоссииСервисы для соискателейГотовое резюмеВсе сервисыПрофориентацияПродвижение резюмеХочу у вас работатьПроизводственный календарьЭкспертная рекомендацияМолодым специалистамКарьера для молодых специалистовШкола программистовШкола продактовПоиск сотрудниковПомощьПользовательское соглашениеКаталог компанийРабота по профессиямУведомления в мессенджерSwitch to English© 2023 Группа компаний HeadHunterСегодня на сайте 1098655 вакансии, 62946161 резюме, 1889082 компании и за неделю 3358192 приглашения</t>
+          <t>Программист40 000 – 120 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>По соответствиюЗа всё времяПодработкаНеполный день 54Временная работа 29От 4 часов в день 21По вечерам 19По выходным 17Разовое задание 1ПодработкаНеполный деньВременная работаОт 4 часов в деньПо вечерамПо выходнымРазовое заданиеИсключить словаИсключить словаУровень доходаруб.Не имеет значенияот 40 000 руб. 143от 80 000 руб. 88от 125 000 руб. 51от 165 000 руб. 21от 205 000 руб. 8Своя зарплатаУказан доход 181Уровень доходаруб.EURUSDУказан доходРегионОмск 341Омская область 345Исилькуль 1Муромцево 1Нововаршавка 1Полтавка 1Показать все РегионДобавить регионСпециализацииПрограммист, разработчик 152Специалист технической поддержки 39Аналитик 22Инженер-конструктор, инженер-проектировщик 16Другое 17СпециализацииДобавить специализациюОтрасль компанииИнформационные технологии, системная интеграция, интернет 108Промышленное оборудование, техника, станки и комплектующие 31Металлургия, металлообработка 23Финансовый сектор 23Электроника, приборостроение, бытовая техника, компьютеры и оргтехника 22Выбрать ещёОтрасль компанииДобавить отрасльОбразованиеНе требуется или не указано 238Высшее 101Среднее профессиональное 12ОбразованиеНе требуется или не указаноВысшееСреднее профессиональноеОпыт работыНе имеет значенияОт 1 года до 3 лет 152Нет опыта 93От 3 до 6 лет 87Более 6 лет 9Опыт работыОт 1 года до 3 летНет опытаОт 3 до 6 летБолее 6 летТип занятостиПолная занятость 275Частичная занятость 54Стажировка 11Проектная работа 1ВолонтерствоТип занятостиПолная занятостьЧастичная занятостьСтажировкаПроектная работаВолонтерствоГрафик работыПолный день 227Удаленная работа 74Гибкий график 24Сменный график 12Вахтовый метод 4График работыПолный деньУдаленная работаГибкий графикСменный графикВахтовый методДругие параметрыБез вакансий от кадровых агентств 321С адресом 166Меньше 10 откликов 138Доступные людям с инвалидностью 60От аккредитованных ИТ-компаний 25Доступные с 14 летКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииКлючевые словаВ названии вакансииВ названии компанииВ описании вакансииСбросить всеЯзык поисковых запросовСейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнутьсяФильтры12345...7дальшеДругие пользователи ищутначальник отделаконсультантпереводчикруководитель проектаweb-программистразработчик программного обеспечениясистемный программистинженер-программистаналитикстажерweb developerматематиктестировщикверстальщикактерБыстрые фильтрыПодработкаЗа суткиЗа последние три дняБез опыта работыПолная занятостьЧастичная занятостьПроектная работаПолный деньСменный графикВахтовый методУдаленная работаГибкий графикОт прямых работодателейДля людей с инвалидностью</t>
+          <t>Программист SQL SSASдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Сейчас просматривают 2 человекаВеб-программистдо 100 000 руб.ФАРМАКОПЕЙКАОмскОткликнутьсяСейчас просматривают 2 человекаПрограммист40 000 – 120 000 руб.ООО Сибирская Студия РазработчиковОмскОткликнутьсяПо вашему запросу ещё будут появляться новые вакансии. Присылать вам?программистОмскКлючевые слова в названии вакансии, в названии компании и в описании вакансииДа, на почтуВ мессенджерСейчас просматривают 2 человекаПрограммист SQL SSASдо 150 000 руб.ФАРМАКОПЕЙКАОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 6 человекPHP-разработчик (Junior)30 000 – 60 000 руб.ООО Суши-МаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1Сот 35 000 руб.Нек. орг. Омский государственный медицинский университетОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаИнженер-программистот 30 000 руб.Нек. орг. Омский государственный медицинский университетОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаСтажер-программист 1С (IT компания)от 20 000 руб.Первый БитОмскСтажировкаРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJunior разработчик (поисковая выдача)до 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сот 170 000 руб.ООО Енисей-сервисОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист Python105 000 – 215 000 руб.ТензорОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С120 000 – 160 000 руб.Ассоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнутьсяJunior разработчик в службу разметки данныхЯндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-разработчик АВАРдо 29 000 руб.СИГМАОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекСтарший программист 1С (IT-компания)95 000 – 160 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.ООО ЭнимаКонсалтОмскОткликнутьсяВедущий программист 1Сот 200 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяАсессор-разработчикдо 65 000 руб.Яндекс КраудОмскЧастичная занятостьРаботодатель сейчас онлайнОткликнутьсяСтажер-программист 1С20 000 – 30 000 руб.ООО Проекты и ПоддержкаОмскСтажировкаОткликнутьсяСейчас просматривает 1 человекПрограммист-стажер 1Сот 25 000 руб.РС КонсалтОмскСтажировкаОткликнутьсяПрограммист С# (Full stack)МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекПрограммист 1С50 000 – 70 000 руб.ООО ТехмашОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекРазработчик 1С (Middle)от 100 000 руб.Первый БитОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяИнженер-программистот 50 000 руб.АО НПП ЭталонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист (ТД СибХолод)Нужные людиОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист АСУ ТП30 000 – 50 000 руб.АО ПоликонОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С160 000 – 210 000 руб.КРОНОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 170 000 руб.ИмпульсОмскОткликнитесь среди первыхОткликнутьсяПрограммист С++ (Linux backend)МИР, Научно-производственное объединениеОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривают 2 человекаPHP-программистООО СМК ХолдингОмскОткликнутьсяПрограммист 1Сот 138 000 руб.ООО НэтиОмскОткликнутьсяИнженер-программистООО Омские Кабельные СетиОмскОткликнитесь среди первыхОткликнутьсяСейчас просматривает 1 человекПрограммист 1Сот 130 000 руб.МИР, Научно-производственное объединениеОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С100 000 – 120 000 руб.Парфюм-ЛидерОмскОткликнутьсяПрограммист / разработчик 1САссоциация торгово-промышленных предприятий, Партнер-ОмскОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1Сот 100 000 руб.МаслоМаркетОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1С90 000 – 110 000 руб.Реактор, АвтокомплексОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяСейчас просматривает 1 человекJavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.Сбер для экспертовОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1САО КордиантОмскОткликнитесь среди первыхОткликнутьсяИнженер-программистАО Омский НИИ ПриборостроенияОмскОткликнутьсяИнженер – программист 1САО СГМКОмскОткликнитесь среди первыхОткликнутьсяVue.js Developerдо 150 000 руб.PurrwebОмскОткликнутьсяСейчас просматривает 1 человекИнженер-программистот 45 000 руб.Филиал ПАО «ОДК-Сатурн»- ОМКБОмскОткликнитесь среди первыхРаботодатель сейчас онлайнОткликнутьсяПрограммист 1Сдо 150 000 руб.ФТООмскОткликнитесь среди первыхОткликнутьсяПрограммист 1СALP GROUPОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1сот 116 600 руб.Сибирский Гурман, КПОмскРаботодатель сейчас онлайнОткликнутьсяПрограммист 1CОмскдизель, Производственно-сбытовая компанияОмскОткликнитесь среди первыхОткликнутьсяПрограммист 1 категорииот 54 000 руб.АО НПО «Радиозавод им. А.С. Попова»ОмскОткликнутьсяСейчас просматривает 1 человекWeb-программист JSот 100 000 руб.ООО ЭлекодОмскЧастичная занятостьОткликнутьсяПрограммистот 35 000 руб.БПОУ Омской области Медицинский колледжОмскОткликнутьсяИнженер - программист 1С60 000 – 80 000 руб.АО Омский каучукОмскОткликнуться</t>
+          <t>PHP-разработчик (Junior)30 000 – 60 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Веб-программистдо 100 000 руб.</t>
+          <t>Стажер-программист 1Сот 35 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Программист40 000 – 120 000 руб.</t>
+          <t>Инженер-программистот 30 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Программист SQL SSASдо 150 000 руб.</t>
+          <t>Стажер-программист 1С (IT компания)от 20 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHP-разработчик (Junior)30 000 – 60 000 руб.</t>
+          <t>Junior разработчик (поисковая выдача)до 65 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Стажер-программист 1Сот 35 000 руб.</t>
+          <t>Программист 1Сот 170 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Инженер-программистот 30 000 руб.</t>
+          <t>Программист Python105 000 – 215 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Стажер-программист 1С (IT компания)от 20 000 руб.</t>
+          <t>Программист 1С120 000 – 160 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Junior разработчик (поисковая выдача)до 65 000 руб.</t>
+          <t>Junior разработчик в службу разметки данных</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Программист 1Сот 170 000 руб.</t>
+          <t>Стажер-разработчик АВАРдо 29 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Программист Python105 000 – 215 000 руб.</t>
+          <t>Старший программист 1С (IT-компания)95 000 – 160 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Программист 1С120 000 – 160 000 руб.</t>
+          <t>ГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Junior разработчик в службу разметки данных</t>
+          <t>Ведущий программист 1Сот 200 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Стажер-разработчик АВАРдо 29 000 руб.</t>
+          <t>Асессор-разработчикдо 65 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Старший программист 1С (IT-компания)95 000 – 160 000 руб.</t>
+          <t>Стажер-программист 1С20 000 – 30 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ГИС программист (разработка/аналитика/системное администрирование)90 000 – 180 000 руб.</t>
+          <t>Программист-стажер 1Сот 25 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ведущий программист 1Сот 200 000 руб.</t>
+          <t>Программист 1С50 000 – 70 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Асессор-разработчикдо 65 000 руб.</t>
+          <t>Программист С# (Full stack)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Стажер-программист 1С20 000 – 30 000 руб.</t>
+          <t>Разработчик 1С (Middle)от 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Программист-стажер 1Сот 25 000 руб.</t>
+          <t>Инженер-программистот 50 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Программист С# (Full stack)</t>
+          <t>Программист АСУ ТП30 000 – 50 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Программист 1С50 000 – 70 000 руб.</t>
+          <t>Программист (ТД СибХолод)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Разработчик 1С (Middle)от 100 000 руб.</t>
+          <t>Программист 1С160 000 – 210 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Инженер-программистот 50 000 руб.</t>
+          <t>Программист 1Сот 170 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Программист (ТД СибХолод)</t>
+          <t>Программист С++ (Linux backend)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Программист АСУ ТП30 000 – 50 000 руб.</t>
+          <t>PHP-программист</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Программист 1С160 000 – 210 000 руб.</t>
+          <t>Программист 1Сот 138 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Программист 1Сот 170 000 руб.</t>
+          <t>Инженер-программист</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Программист С++ (Linux backend)</t>
+          <t>Программист 1С100 000 – 120 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PHP-программист</t>
+          <t>Программист / разработчик 1С</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Программист 1Сот 138 000 руб.</t>
+          <t>Программист 1Сот 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Инженер-программист</t>
+          <t>Программист 1Сот 130 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Программист 1Сот 130 000 руб.</t>
+          <t>Программист 1С90 000 – 110 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Программист 1С100 000 – 120 000 руб.</t>
+          <t>JavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Программист / разработчик 1С</t>
+          <t>Программист 1С</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Программист 1Сот 100 000 руб.</t>
+          <t>Инженер-программист</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Программист 1С90 000 – 110 000 руб.</t>
+          <t>Инженер – программист 1С</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JavaScript Junior Сценарист/разработчик, г. Омскот 78 563 руб.</t>
+          <t>Vue.js Developerдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Программист 1С</t>
+          <t>Инженер-программистот 45 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Инженер-программист</t>
+          <t>Программист 1Сдо 150 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Инженер – программист 1С</t>
+          <t>Программист 1С</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vue.js Developerдо 150 000 руб.</t>
+          <t>Программист 1сот 116 600 руб.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Инженер-программистот 45 000 руб.</t>
+          <t>Программист 1C</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Программист 1Сдо 150 000 руб.</t>
+          <t>Программист 1 категорииот 54 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Программист 1С</t>
+          <t>Web-программист JSот 100 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Программист 1сот 116 600 руб.</t>
+          <t>Программистот 35 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
-        <is>
-          <t>Программист 1C</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Программист 1 категорииот 54 000 руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Web-программист JSот 100 000 руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Программистот 35 000 руб.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
         <is>
           <t>Инженер - программист 1С60 000 – 80 000 руб.</t>
         </is>

--- a/res.xlsx
+++ b/res.xlsx
@@ -459,7 +459,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Стажер-программист 1Сот 35 000 руб.</t>
+          <t>Стажер-программист 1С (IT компания)от 20 000 руб.</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Стажер-программист 1С (IT компания)от 20 000 руб.</t>
+          <t>Стажер-программист 1Сот 35 000 руб.</t>
         </is>
       </c>
     </row>
@@ -508,21 +508,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Junior разработчик в службу разметки данных</t>
+          <t>Стажер-разработчик АВАРдо 29 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Стажер-разработчик АВАРдо 29 000 руб.</t>
+          <t>Старший программист 1С (IT-компания)95 000 – 160 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Старший программист 1С (IT-компания)95 000 – 160 000 руб.</t>
+          <t>Junior разработчик в службу разметки данных</t>
         </is>
       </c>
     </row>
@@ -557,14 +557,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Программист-стажер 1Сот 25 000 руб.</t>
+          <t>Программист 1С50 000 – 70 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Программист 1С50 000 – 70 000 руб.</t>
+          <t>Программист-стажер 1Сот 25 000 руб.</t>
         </is>
       </c>
     </row>
@@ -613,14 +613,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Программист 1Сот 170 000 руб.</t>
+          <t>Программист С++ (Linux backend)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Программист С++ (Linux backend)</t>
+          <t>Программист 1Сот 170 000 руб.</t>
         </is>
       </c>
     </row>
@@ -669,14 +669,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Программист 1Сот 130 000 руб.</t>
+          <t>Программист 1С90 000 – 110 000 руб.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Программист 1С90 000 – 110 000 руб.</t>
+          <t>Программист 1Сот 130 000 руб.</t>
         </is>
       </c>
     </row>
